--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAUI\MauiNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6A80B-DE64-4FE1-B390-5151D25D5F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171EEF8B-9C05-45B4-BE78-83C0C4D985FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
